--- a/timed commitmet experiment/ClassGroup/time.xlsx
+++ b/timed commitmet experiment/ClassGroup/time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\psyduck\RandomnessBeacon3.0\timed commitmet experiment\ClassGroup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EAB0F-15AF-4E53-803E-1FCCC92FEADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE23136-9920-4424-8C08-8006BD5DB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
   <si>
     <t>bitLength</t>
   </si>
@@ -110,6 +110,45 @@
     <t>128bit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>19.7*128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6656bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kB(total)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kB(per)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spurt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrand </t>
+  </si>
 </sst>
 </file>
 
@@ -126,6 +165,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,9 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,6 +275,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10638,36 +10684,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet6!$L$91:$L$93</c:f>
+              <c:f>Sheet6!$B$117:$B$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$M$91:$M$93</c:f>
+              <c:f>Sheet6!$D$117:$D$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2366.4</c:v>
+                  <c:v>46.680800000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3242.5</c:v>
+                  <c:v>93.653800000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4974.3999999999996</c:v>
+                  <c:v>140.79392999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>940.75700000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1411.337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1881.9170000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10675,7 +10751,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-892E-4A88-8672-113DBEAEB9CD}"/>
+              <c16:uniqueId val="{00000000-461B-4E51-B105-899A6141DA3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10687,11 +10763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343619616"/>
-        <c:axId val="343612128"/>
+        <c:axId val="644585983"/>
+        <c:axId val="644586399"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343619616"/>
+        <c:axId val="644585983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10748,12 +10824,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343612128"/>
+        <c:crossAx val="644586399"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343612128"/>
+        <c:axId val="644586399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,7 +10886,933 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343619616"/>
+        <c:crossAx val="644585983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$L$138:$L$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$N$138:$N$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1065.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18137.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D76-47AB-BF81-4322CE8AA3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$L$149:$L$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$N$149:$N$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1865.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30822.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5D76-47AB-BF81-4322CE8AA3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$L$144:$L$146</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$L$144:$L$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$N$144:$N$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5D76-47AB-BF81-4322CE8AA3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$L$131:$L$135</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$L$131:$L$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$N$131:$N$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>231.839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>463.60399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>927.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1390.664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1854.194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5D76-47AB-BF81-4322CE8AA3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="641978095"/>
+        <c:axId val="641967279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="641978095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641967279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="641967279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641978095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$L$144:$L$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$N$144:$N$146</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C5F-444D-B3B1-329436E58394}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="838243103"/>
+        <c:axId val="838231455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="838243103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838231455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="838231455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838243103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14268,6 +15270,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26893,6 +27975,1038 @@
 </file>
 
 <file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31609,23 +33723,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C493223-C31B-4808-8C8A-B0128CAC11DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFCB752-6474-4CBE-BA95-C0487C155D7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31638,6 +33752,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="42" name="图表 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFABAE7B-7EDC-470E-8605-D20F2F85DD35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="43" name="图表 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92A99E8-064D-4825-932C-3247E2EE5B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31944,7 +34130,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="12">
         <v>128</v>
       </c>
       <c r="B2">
@@ -31962,12 +34148,12 @@
       <c r="F2">
         <v>3.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="12"/>
       <c r="B3">
         <v>33256910</v>
       </c>
@@ -31983,10 +34169,10 @@
       <c r="F3">
         <v>3.15</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="12"/>
       <c r="B4">
         <v>37341559</v>
       </c>
@@ -32002,10 +34188,10 @@
       <c r="F4">
         <v>3.3</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="12"/>
       <c r="B5">
         <v>78253405</v>
       </c>
@@ -32021,10 +34207,10 @@
       <c r="F5">
         <v>3.3</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="12">
         <v>256</v>
       </c>
       <c r="B6">
@@ -32042,12 +34228,12 @@
       <c r="F6">
         <v>7.05</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="12"/>
       <c r="B7">
         <v>48240368</v>
       </c>
@@ -32063,10 +34249,10 @@
       <c r="F7">
         <v>7.2</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="12"/>
       <c r="B8">
         <v>45442882</v>
       </c>
@@ -32082,10 +34268,10 @@
       <c r="F8">
         <v>7.2</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="12"/>
       <c r="B9">
         <v>57621380</v>
       </c>
@@ -32101,10 +34287,10 @@
       <c r="F9">
         <v>7.3</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="12">
         <v>512</v>
       </c>
       <c r="B10">
@@ -32122,12 +34308,12 @@
       <c r="F10">
         <v>12.75</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="12"/>
       <c r="B11">
         <v>42827144</v>
       </c>
@@ -32143,10 +34329,10 @@
       <c r="F11">
         <v>12.55</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="12"/>
       <c r="B12">
         <v>32465492</v>
       </c>
@@ -32162,10 +34348,10 @@
       <c r="F12">
         <v>13.1</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="12"/>
       <c r="B13">
         <v>38292406</v>
       </c>
@@ -32181,10 +34367,10 @@
       <c r="F13">
         <v>12.7</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="12">
         <v>1024</v>
       </c>
       <c r="B14">
@@ -32202,12 +34388,12 @@
       <c r="F14">
         <v>24.15</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="12"/>
       <c r="B15">
         <v>275893951</v>
       </c>
@@ -32223,10 +34409,10 @@
       <c r="F15">
         <v>23.25</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="12"/>
       <c r="B16">
         <v>279180431</v>
       </c>
@@ -32242,10 +34428,10 @@
       <c r="F16">
         <v>24.05</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="12"/>
       <c r="B17">
         <v>63464203</v>
       </c>
@@ -32261,10 +34447,10 @@
       <c r="F17" s="2">
         <v>23.2</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="12">
         <v>2048</v>
       </c>
       <c r="B18">
@@ -32282,12 +34468,12 @@
       <c r="F18">
         <v>52.25</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="12"/>
       <c r="B19">
         <v>36075905</v>
       </c>
@@ -32303,10 +34489,10 @@
       <c r="F19">
         <v>49.65</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="12"/>
       <c r="B20">
         <v>35808355</v>
       </c>
@@ -32322,10 +34508,10 @@
       <c r="F20">
         <v>49.75</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="12"/>
       <c r="B21">
         <v>78286015</v>
       </c>
@@ -32341,7 +34527,7 @@
       <c r="F21">
         <v>49.75</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -32490,7 +34676,7 @@
       <c r="F38">
         <v>3.4</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="12">
         <v>10</v>
       </c>
     </row>
@@ -32513,7 +34699,7 @@
       <c r="F39">
         <v>7.55</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -32534,7 +34720,7 @@
       <c r="F40">
         <v>12.45</v>
       </c>
-      <c r="G40" s="6"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -32555,7 +34741,7 @@
       <c r="F41">
         <v>24.85</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -32576,7 +34762,7 @@
       <c r="F42">
         <v>51.35</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -32597,7 +34783,7 @@
       <c r="F43">
         <v>7.25</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="12">
         <v>11</v>
       </c>
     </row>
@@ -32620,7 +34806,7 @@
       <c r="F44">
         <v>15.2</v>
       </c>
-      <c r="G44" s="6"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -32641,7 +34827,7 @@
       <c r="F45">
         <v>25.85</v>
       </c>
-      <c r="G45" s="6"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -32662,7 +34848,7 @@
       <c r="F46">
         <v>49</v>
       </c>
-      <c r="G46" s="6"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -32683,7 +34869,7 @@
       <c r="F47">
         <v>100.5</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -32704,7 +34890,7 @@
       <c r="F48">
         <v>14.35</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="12">
         <v>12</v>
       </c>
     </row>
@@ -32727,7 +34913,7 @@
       <c r="F49">
         <v>28.6</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -32748,7 +34934,7 @@
       <c r="F50">
         <v>53.3</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -32769,7 +34955,7 @@
       <c r="F51">
         <v>99.3</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -32790,7 +34976,7 @@
       <c r="F52">
         <v>209</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -32811,7 +34997,7 @@
       <c r="F53">
         <v>28.2</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="12">
         <v>13</v>
       </c>
     </row>
@@ -32834,7 +35020,7 @@
       <c r="F54">
         <v>64.2</v>
       </c>
-      <c r="G54" s="6"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -32855,7 +35041,7 @@
       <c r="F55">
         <v>112.4</v>
       </c>
-      <c r="G55" s="6"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -32876,7 +35062,7 @@
       <c r="F56">
         <v>199.2</v>
       </c>
-      <c r="G56" s="6"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -32897,7 +35083,7 @@
       <c r="F57">
         <v>428.35</v>
       </c>
-      <c r="G57" s="6"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -32918,7 +35104,7 @@
       <c r="F58">
         <v>59.15</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="12">
         <v>14</v>
       </c>
     </row>
@@ -32941,7 +35127,7 @@
       <c r="F59">
         <v>122.8</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -32962,7 +35148,7 @@
       <c r="F60">
         <v>214.65</v>
       </c>
-      <c r="G60" s="6"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -32983,7 +35169,7 @@
       <c r="F61">
         <v>406.3</v>
       </c>
-      <c r="G61" s="6"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -33004,7 +35190,7 @@
       <c r="F62">
         <v>876.15</v>
       </c>
-      <c r="G62" s="6"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -33025,7 +35211,7 @@
       <c r="F63">
         <v>131.75</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="12">
         <v>15</v>
       </c>
     </row>
@@ -33048,7 +35234,7 @@
       <c r="F64">
         <v>242.3</v>
       </c>
-      <c r="G64" s="6"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -33069,7 +35255,7 @@
       <c r="F65">
         <v>422.45</v>
       </c>
-      <c r="G65" s="6"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -33090,7 +35276,7 @@
       <c r="F66">
         <v>792.4</v>
       </c>
-      <c r="G66" s="6"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -33111,7 +35297,7 @@
       <c r="F67">
         <v>1623.05</v>
       </c>
-      <c r="G67" s="6"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -33137,10 +35323,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="12">
         <v>128</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="13">
         <v>33256910</v>
       </c>
       <c r="C72">
@@ -33160,8 +35346,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
       <c r="C73">
         <v>116.45</v>
       </c>
@@ -33179,8 +35365,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
       <c r="C74">
         <v>417.2</v>
       </c>
@@ -33198,8 +35384,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
       <c r="C75">
         <v>1570.9</v>
       </c>
@@ -33217,8 +35403,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
       <c r="C76">
         <v>6207</v>
       </c>
@@ -33236,8 +35422,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
       <c r="C77">
         <v>25825.200000000001</v>
       </c>
@@ -33287,10 +35473,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="A80" s="12">
         <v>256</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="12">
         <v>45442882</v>
       </c>
       <c r="C80">
@@ -33310,8 +35496,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81">
         <v>143.80000000000001</v>
       </c>
@@ -33329,8 +35515,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82">
         <v>475.05</v>
       </c>
@@ -33348,8 +35534,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83">
         <v>1689.45</v>
       </c>
@@ -33367,8 +35553,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84">
         <v>6406.55</v>
       </c>
@@ -33386,8 +35572,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85">
         <v>24777.05</v>
       </c>
@@ -33437,10 +35623,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88" s="12">
         <v>512</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="12">
         <v>32465492</v>
       </c>
       <c r="C88">
@@ -33460,8 +35646,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
       <c r="C89">
         <v>181.85</v>
       </c>
@@ -33479,8 +35665,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
       <c r="C90">
         <v>536.54999999999995</v>
       </c>
@@ -33498,8 +35684,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
       <c r="C91">
         <v>1913.9</v>
       </c>
@@ -33517,8 +35703,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
       <c r="C92">
         <v>6967.25</v>
       </c>
@@ -33536,8 +35722,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
       <c r="C93">
         <v>26389.65</v>
       </c>
@@ -33587,10 +35773,10 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96" s="12">
         <v>1024</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="12">
         <v>275893951</v>
       </c>
       <c r="C96">
@@ -33610,8 +35796,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
       <c r="C97">
         <v>251.6</v>
       </c>
@@ -33629,8 +35815,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98">
         <v>713.25</v>
       </c>
@@ -33648,8 +35834,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
       <c r="C99">
         <v>2209.8000000000002</v>
       </c>
@@ -33667,8 +35853,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
       <c r="C100">
         <v>7868.95</v>
       </c>
@@ -33686,8 +35872,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
       <c r="C101">
         <v>26968.05</v>
       </c>
@@ -33737,10 +35923,10 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
+      <c r="A104" s="12">
         <v>2048</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="12">
         <v>35808355</v>
       </c>
       <c r="C104">
@@ -33760,8 +35946,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
       <c r="C105">
         <v>424.25</v>
       </c>
@@ -33779,8 +35965,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
       <c r="C106">
         <v>1035.1500000000001</v>
       </c>
@@ -33798,8 +35984,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
       <c r="C107">
         <v>2949.55</v>
       </c>
@@ -33817,8 +36003,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
       <c r="C108">
         <v>9343.1</v>
       </c>
@@ -33836,8 +36022,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
       <c r="C109">
         <v>30201.45</v>
       </c>
@@ -33883,7 +36069,7 @@
       </c>
     </row>
     <row r="113" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F113">
@@ -33894,7 +36080,7 @@
       </c>
     </row>
     <row r="114" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E114" s="6"/>
+      <c r="E114" s="12"/>
       <c r="F114">
         <v>1.0049999999999999</v>
       </c>
@@ -33903,7 +36089,7 @@
       </c>
     </row>
     <row r="115" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="6"/>
+      <c r="E115" s="12"/>
       <c r="F115">
         <v>2.09</v>
       </c>
@@ -33912,7 +36098,7 @@
       </c>
     </row>
     <row r="116" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="6"/>
+      <c r="E116" s="12"/>
       <c r="F116">
         <v>4.2835000000000001</v>
       </c>
@@ -33921,7 +36107,7 @@
       </c>
     </row>
     <row r="117" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E117" s="6"/>
+      <c r="E117" s="12"/>
       <c r="F117">
         <v>8.7614999999999998</v>
       </c>
@@ -33930,7 +36116,7 @@
       </c>
     </row>
     <row r="118" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E118" s="6"/>
+      <c r="E118" s="12"/>
       <c r="F118">
         <v>16.230499999999999</v>
       </c>
@@ -33939,7 +36125,7 @@
       </c>
     </row>
     <row r="119" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E119" s="6"/>
+      <c r="E119" s="12"/>
       <c r="F119">
         <v>38.548000000000002</v>
       </c>
@@ -33948,7 +36134,7 @@
       </c>
     </row>
     <row r="120" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E120" s="6"/>
+      <c r="E120" s="12"/>
       <c r="F120">
         <v>68.63</v>
       </c>
@@ -33957,7 +36143,7 @@
       </c>
     </row>
     <row r="122" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F122">
@@ -33968,7 +36154,7 @@
       </c>
     </row>
     <row r="123" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E123" s="6"/>
+      <c r="E123" s="12"/>
       <c r="F123">
         <v>256</v>
       </c>
@@ -33977,7 +36163,7 @@
       </c>
     </row>
     <row r="124" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="6"/>
+      <c r="E124" s="12"/>
       <c r="F124">
         <v>512</v>
       </c>
@@ -33986,7 +36172,7 @@
       </c>
     </row>
     <row r="125" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E125" s="6"/>
+      <c r="E125" s="12"/>
       <c r="F125">
         <v>1024</v>
       </c>
@@ -33995,7 +36181,7 @@
       </c>
     </row>
     <row r="126" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E126" s="6"/>
+      <c r="E126" s="12"/>
       <c r="F126">
         <v>2048</v>
       </c>
@@ -34004,7 +36190,7 @@
       </c>
     </row>
     <row r="128" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F128">
@@ -34018,7 +36204,7 @@
       </c>
     </row>
     <row r="129" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E129" s="6"/>
+      <c r="E129" s="12"/>
       <c r="F129">
         <v>256</v>
       </c>
@@ -34030,7 +36216,7 @@
       </c>
     </row>
     <row r="130" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E130" s="6"/>
+      <c r="E130" s="12"/>
       <c r="F130">
         <v>512</v>
       </c>
@@ -34042,7 +36228,7 @@
       </c>
     </row>
     <row r="131" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E131" s="6"/>
+      <c r="E131" s="12"/>
       <c r="F131">
         <v>1024</v>
       </c>
@@ -34054,7 +36240,7 @@
       </c>
     </row>
     <row r="132" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E132" s="6"/>
+      <c r="E132" s="12"/>
       <c r="F132">
         <v>2048</v>
       </c>
@@ -34067,21 +36253,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="B104:B109"/>
     <mergeCell ref="E113:E120"/>
     <mergeCell ref="E122:E126"/>
     <mergeCell ref="E128:E132"/>
@@ -34096,6 +36267,21 @@
     <mergeCell ref="G53:G57"/>
     <mergeCell ref="G58:G62"/>
     <mergeCell ref="G63:G67"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34187,10 +36373,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="12">
         <v>128</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="12">
         <v>33256910</v>
       </c>
       <c r="C2">
@@ -34210,8 +36396,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3">
         <v>141</v>
       </c>
@@ -34229,8 +36415,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4">
         <v>502</v>
       </c>
@@ -34248,8 +36434,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5">
         <v>2031</v>
       </c>
@@ -34267,8 +36453,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6">
         <v>8184</v>
       </c>
@@ -34286,8 +36472,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7">
         <v>32736</v>
       </c>
@@ -34305,8 +36491,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8">
         <v>130588</v>
       </c>
@@ -34324,8 +36510,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9">
         <v>519321</v>
       </c>
@@ -34419,10 +36605,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="12">
         <v>256</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="12">
         <v>45442882</v>
       </c>
       <c r="C14">
@@ -34442,8 +36628,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15">
         <v>161</v>
       </c>
@@ -34461,8 +36647,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16">
         <v>568</v>
       </c>
@@ -34480,8 +36666,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17">
         <v>2156</v>
       </c>
@@ -34499,8 +36685,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18">
         <v>8273</v>
       </c>
@@ -34518,8 +36704,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19">
         <v>32749</v>
       </c>
@@ -34537,8 +36723,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20">
         <v>131216</v>
       </c>
@@ -34556,8 +36742,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21">
         <v>519842</v>
       </c>
@@ -34575,10 +36761,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="12">
         <v>512</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <v>32465492</v>
       </c>
       <c r="C22">
@@ -34598,8 +36784,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23">
         <v>196</v>
       </c>
@@ -34617,8 +36803,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24">
         <v>632</v>
       </c>
@@ -34636,8 +36822,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25">
         <v>2211</v>
       </c>
@@ -34655,8 +36841,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26">
         <v>8567</v>
       </c>
@@ -34674,8 +36860,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27">
         <v>33111</v>
       </c>
@@ -34693,8 +36879,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28">
         <v>131934</v>
       </c>
@@ -34712,8 +36898,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29">
         <v>524825</v>
       </c>
@@ -34731,10 +36917,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="12">
         <v>1024</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="12">
         <v>275893951</v>
       </c>
       <c r="C30">
@@ -34754,8 +36940,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31">
         <v>266</v>
       </c>
@@ -34773,8 +36959,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32">
         <v>779</v>
       </c>
@@ -34792,8 +36978,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33">
         <v>2586</v>
       </c>
@@ -34811,8 +36997,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34">
         <v>9237</v>
       </c>
@@ -34830,8 +37016,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35">
         <v>36216</v>
       </c>
@@ -34849,8 +37035,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36">
         <v>134862</v>
       </c>
@@ -34868,8 +37054,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37">
         <v>534176</v>
       </c>
@@ -34887,10 +37073,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="12">
         <v>2048</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="12">
         <v>35808355</v>
       </c>
       <c r="C38">
@@ -34910,8 +37096,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39">
         <v>469</v>
       </c>
@@ -34929,8 +37115,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40">
         <v>1257</v>
       </c>
@@ -34948,8 +37134,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41">
         <v>3396</v>
       </c>
@@ -34967,8 +37153,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42">
         <v>10970</v>
       </c>
@@ -34986,8 +37172,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43">
         <v>38623</v>
       </c>
@@ -35005,8 +37191,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44">
         <v>142914</v>
       </c>
@@ -35024,8 +37210,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45">
         <v>540702</v>
       </c>
@@ -35043,10 +37229,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="12">
         <v>2048</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="12">
         <v>35808355</v>
       </c>
       <c r="C48">
@@ -35066,8 +37252,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49">
         <v>469</v>
       </c>
@@ -35085,8 +37271,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50">
         <v>1257</v>
       </c>
@@ -35104,8 +37290,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51">
         <v>3396</v>
       </c>
@@ -35123,8 +37309,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52">
         <v>10970</v>
       </c>
@@ -35142,8 +37328,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53">
         <v>38623</v>
       </c>
@@ -35161,8 +37347,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54">
         <v>142914</v>
       </c>
@@ -35180,8 +37366,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55">
         <v>540702</v>
       </c>
@@ -35238,7 +37424,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -35247,13 +37433,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -35264,10 +37450,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="12">
         <v>128</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="12">
         <v>33256910</v>
       </c>
       <c r="C2" s="4">
@@ -35290,8 +37476,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4">
         <v>96</v>
       </c>
@@ -35312,8 +37498,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4">
         <v>172</v>
       </c>
@@ -35334,8 +37520,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4">
         <v>322</v>
       </c>
@@ -35351,14 +37537,14 @@
       <c r="G5" s="3">
         <v>13</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f>4096*2</f>
         <v>8192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4">
         <v>628</v>
       </c>
@@ -35374,14 +37560,14 @@
       <c r="G6" s="3">
         <v>14</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f>8192*2</f>
         <v>16384</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4">
         <v>1274</v>
       </c>
@@ -35394,17 +37580,17 @@
       <c r="F7" s="4">
         <v>121</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>15</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f>16384*2</f>
         <v>32768</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4">
         <v>2517</v>
       </c>
@@ -35417,17 +37603,17 @@
       <c r="F8" s="4">
         <v>229.4</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>16</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f>32768*2</f>
         <v>65536</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4">
         <v>4974</v>
       </c>
@@ -35440,17 +37626,17 @@
       <c r="F9" s="4">
         <v>455.1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>17</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f>65536*2</f>
         <v>131072</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4">
         <v>9883</v>
       </c>
@@ -35463,17 +37649,17 @@
       <c r="F10" s="4">
         <v>902.1</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>18</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f>131072*2</f>
         <v>262144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>19571</v>
       </c>
@@ -35486,17 +37672,17 @@
       <c r="F11" s="4">
         <v>1803</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>19</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f>262144*2</f>
         <v>524288</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4">
         <v>39264</v>
       </c>
@@ -35509,17 +37695,17 @@
       <c r="F12" s="4">
         <v>3594.2</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>20</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f>524288*2</f>
         <v>1048576</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="4">
         <v>78254</v>
       </c>
@@ -35535,14 +37721,14 @@
       <c r="G13" s="3">
         <v>21</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f>1048576*2</f>
         <v>2097152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="4">
         <v>156516</v>
       </c>
@@ -35558,14 +37744,14 @@
       <c r="G14" s="3">
         <v>22</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f>2097152*2</f>
         <v>4194304</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4">
         <v>317310</v>
       </c>
@@ -35581,14 +37767,14 @@
       <c r="G15" s="3">
         <v>23</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f>4194304*2</f>
         <v>8388608</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="4">
         <v>628869</v>
       </c>
@@ -35604,14 +37790,14 @@
       <c r="G16" s="3">
         <v>24</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f>8388608*2</f>
         <v>16777216</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -35621,10 +37807,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="12">
         <v>256</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12">
         <v>45442882</v>
       </c>
       <c r="C18" s="3"/>
@@ -35636,8 +37822,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -35651,8 +37837,8 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -35666,8 +37852,8 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -35681,8 +37867,8 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -35696,8 +37882,8 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4">
         <v>2320</v>
       </c>
@@ -35710,10 +37896,10 @@
       <c r="F23" s="4">
         <v>239.8</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>15</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <f>16384*2</f>
         <v>32768</v>
       </c>
@@ -35723,8 +37909,8 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4">
         <v>4632</v>
       </c>
@@ -35737,17 +37923,17 @@
       <c r="F24" s="4">
         <v>468.2</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>16</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <f>32768*2</f>
         <v>65536</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4">
         <v>9260</v>
       </c>
@@ -35760,17 +37946,17 @@
       <c r="F25" s="4">
         <v>922.9</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>17</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <f>65536*2</f>
         <v>131072</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4">
         <v>18377</v>
       </c>
@@ -35783,17 +37969,17 @@
       <c r="F26" s="4">
         <v>1850.1</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>18</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f>131072*2</f>
         <v>262144</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4">
         <v>36852</v>
       </c>
@@ -35806,17 +37992,17 @@
       <c r="F27" s="4">
         <v>3742.6</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>19</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <f>262144*2</f>
         <v>524288</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4">
         <v>73930</v>
       </c>
@@ -35829,17 +38015,17 @@
       <c r="F28" s="4">
         <v>7409.1</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>20</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <f>524288*2</f>
         <v>1048576</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -35849,8 +38035,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -35860,8 +38046,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -35871,9 +38057,9 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
@@ -35882,8 +38068,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -35893,10 +38079,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="12">
         <v>512</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="12">
         <v>32465492</v>
       </c>
       <c r="C34" s="3"/>
@@ -35908,8 +38094,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -35919,8 +38105,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -35930,8 +38116,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -35941,8 +38127,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -35952,8 +38138,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="4">
         <v>4320</v>
       </c>
@@ -35966,13 +38152,13 @@
       <c r="F39" s="4">
         <v>402.1</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="4">
         <v>8582</v>
       </c>
@@ -35985,13 +38171,13 @@
       <c r="F40" s="4">
         <v>804.5</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="4">
         <v>17195</v>
       </c>
@@ -36004,13 +38190,13 @@
       <c r="F41" s="4">
         <v>1621</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="4">
         <v>34265</v>
       </c>
@@ -36023,13 +38209,13 @@
       <c r="F42" s="4">
         <v>3217.3</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="4">
         <v>68629</v>
       </c>
@@ -36042,13 +38228,13 @@
       <c r="F43" s="4">
         <v>6440.2</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="4">
         <v>137090</v>
       </c>
@@ -36061,13 +38247,13 @@
       <c r="F44" s="4">
         <v>12909.5</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -36077,8 +38263,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -36088,8 +38274,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -36099,8 +38285,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -36110,8 +38296,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -36121,10 +38307,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="12">
         <v>1024</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="12">
         <v>275893951</v>
       </c>
       <c r="C50" s="3"/>
@@ -36136,8 +38322,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -36147,8 +38333,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -36158,8 +38344,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -36169,8 +38355,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -36180,27 +38366,27 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="4">
         <v>8757</v>
       </c>
       <c r="D55" s="4">
         <v>350.2</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>290</v>
       </c>
       <c r="F55" s="4">
         <v>748.1</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="4">
         <v>17548</v>
       </c>
@@ -36213,13 +38399,13 @@
       <c r="F56" s="4">
         <v>1497.1</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="4">
         <v>34854</v>
       </c>
@@ -36232,13 +38418,13 @@
       <c r="F57" s="4">
         <v>3001.8</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="4">
         <v>69916</v>
       </c>
@@ -36251,13 +38437,13 @@
       <c r="F58" s="4">
         <v>6026.6</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="4">
         <v>140643</v>
       </c>
@@ -36270,13 +38456,13 @@
       <c r="F59" s="4">
         <v>12001.9</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="4">
         <v>282569</v>
       </c>
@@ -36289,13 +38475,13 @@
       <c r="F60" s="4">
         <v>24072.3</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -36305,8 +38491,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -36316,8 +38502,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -36327,8 +38513,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -36338,8 +38524,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -36349,10 +38535,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="12">
         <v>2048</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="12">
         <v>35808355</v>
       </c>
       <c r="C66" s="3"/>
@@ -36364,8 +38550,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -36375,8 +38561,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -36386,8 +38572,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -36397,8 +38583,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -36408,8 +38594,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="4">
         <v>19602</v>
       </c>
@@ -36422,17 +38608,17 @@
       <c r="F71" s="4">
         <v>1551</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <v>15</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <f>16384*2</f>
         <v>32768</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="4">
         <v>39424</v>
       </c>
@@ -36445,17 +38631,17 @@
       <c r="F72" s="4">
         <v>3102.7</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <v>16</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <f>32768*2</f>
         <v>65536</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="4">
         <v>79039</v>
       </c>
@@ -36468,17 +38654,17 @@
       <c r="F73" s="4">
         <v>6220.5</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <v>17</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <f>65536*2</f>
         <v>131072</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="4">
         <v>160103</v>
       </c>
@@ -36491,17 +38677,17 @@
       <c r="F74" s="4">
         <v>12497.9</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <v>18</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <f>131072*2</f>
         <v>262144</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="4">
         <v>320683</v>
       </c>
@@ -36514,17 +38700,17 @@
       <c r="F75" s="4">
         <v>24999.7</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <v>19</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <f>262144*2</f>
         <v>524288</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="4">
         <v>645992</v>
       </c>
@@ -36537,17 +38723,17 @@
       <c r="F76" s="4">
         <v>50137.7</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <v>20</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <f>524288*2</f>
         <v>1048576</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -36557,8 +38743,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -36568,8 +38754,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -36579,8 +38765,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -36590,8 +38776,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -36601,8 +38787,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -36620,10 +38806,10 @@
       <c r="E86" s="4">
         <v>14.4</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <v>121</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="10">
         <v>15</v>
       </c>
     </row>
@@ -36646,7 +38832,7 @@
       <c r="F87" s="4">
         <v>239.8</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="10">
         <v>15</v>
       </c>
     </row>
@@ -36669,7 +38855,7 @@
       <c r="F88" s="4">
         <v>402.1</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="10">
         <v>15</v>
       </c>
     </row>
@@ -36686,13 +38872,13 @@
       <c r="D89" s="4">
         <v>355.6</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <v>299.3</v>
       </c>
       <c r="F89" s="4">
         <v>755.4</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="10">
         <v>15</v>
       </c>
     </row>
@@ -36715,22 +38901,22 @@
       <c r="F90" s="4">
         <v>1542.8</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="10">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="B34:B49"/>
     <mergeCell ref="B50:B65"/>
     <mergeCell ref="B66:B81"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36741,10 +38927,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AFD281-9B2B-4F6D-AF1E-97BC51BFFDA7}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -36756,17 +38942,17 @@
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -36776,7 +38962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>19602</v>
       </c>
@@ -36789,15 +38975,27 @@
       <c r="D2" s="4">
         <v>1551</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>15</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>16384*2</f>
         <v>32768</v>
       </c>
+      <c r="H2" s="6">
+        <v>1.3525999999999998</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.0857000000000001</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>39424</v>
       </c>
@@ -36810,15 +39008,24 @@
       <c r="D3" s="4">
         <v>3102.7</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>16</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>32768*2</f>
         <v>65536</v>
       </c>
+      <c r="H3" s="6">
+        <v>1.3654999999999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.0883</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3.1027</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>79039</v>
       </c>
@@ -36831,15 +39038,24 @@
       <c r="D4" s="4">
         <v>6220.5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>17</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>65536*2</f>
         <v>131072</v>
       </c>
+      <c r="H4" s="6">
+        <v>1.3773</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.0999000000000001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6.2205000000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>160103</v>
       </c>
@@ -36852,15 +39068,24 @@
       <c r="D5" s="4">
         <v>12497.9</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>18</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f>131072*2</f>
         <v>262144</v>
       </c>
+      <c r="H5" s="6">
+        <v>1.3868</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.1200999999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <v>12.4979</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>320683</v>
       </c>
@@ -36873,15 +39098,24 @@
       <c r="D6" s="4">
         <v>24999.7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>19</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>262144*2</f>
         <v>524288</v>
       </c>
+      <c r="H6" s="6">
+        <v>1.3880999999999999</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.1095999999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <v>24.999700000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>645992</v>
       </c>
@@ -36894,35 +39128,44 @@
       <c r="D7" s="4">
         <v>50137.7</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>524288*2</f>
         <v>1048576</v>
       </c>
+      <c r="H7" s="6">
+        <v>1.4048</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.1284000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>50.137699999999995</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>128</v>
       </c>
@@ -36938,11 +39181,26 @@
       <c r="E46" s="4">
         <v>3594.2</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>20</v>
       </c>
+      <c r="I46">
+        <v>128</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1.52E-2</v>
+      </c>
+      <c r="L46" s="6">
+        <v>3.5941999999999998</v>
+      </c>
+      <c r="M46" s="6">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>256</v>
       </c>
@@ -36958,11 +39216,23 @@
       <c r="E47" s="4">
         <v>7409.1</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>20</v>
       </c>
+      <c r="I47">
+        <v>256</v>
+      </c>
+      <c r="J47" s="6">
+        <v>3.78E-2</v>
+      </c>
+      <c r="K47" s="6">
+        <v>3.56E-2</v>
+      </c>
+      <c r="L47" s="6">
+        <v>7.4091000000000005</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>512</v>
       </c>
@@ -36978,11 +39248,23 @@
       <c r="E48" s="4">
         <v>12909.5</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>20</v>
       </c>
+      <c r="I48">
+        <v>512</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="K48" s="6">
+        <v>9.820000000000001E-2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>12.9095</v>
+      </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1024</v>
       </c>
@@ -36998,11 +39280,23 @@
       <c r="E49" s="4">
         <v>24072.3</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>20</v>
       </c>
+      <c r="I49">
+        <v>1024</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="L49" s="6">
+        <v>24.072299999999998</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -37018,98 +39312,115 @@
       <c r="E50" s="4">
         <v>50137.7</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>20</v>
+      </c>
+      <c r="I50">
+        <v>2048</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.4048</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1.1284000000000001</v>
+      </c>
+      <c r="L50" s="6">
+        <v>50.137699999999995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE894E7D-E462-4A69-81D2-6BE940DFC25F}">
-  <dimension ref="A1:Y111"/>
+  <dimension ref="A1:Y160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Z107" sqref="Z107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E1">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H1">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K1">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N1">
         <v>5</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q1">
         <v>6</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="T1">
         <v>7</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="W1">
         <v>8</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -37479,13 +39790,13 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8">
@@ -37500,15 +39811,15 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C9">
@@ -37524,13 +39835,13 @@
         <v>99</v>
       </c>
       <c r="G9">
-        <f>SUM(C9:F9)</f>
+        <f t="shared" ref="G9:G18" si="0">SUM(C9:F9)</f>
         <v>2301</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -37546,15 +39857,21 @@
         <v>668</v>
       </c>
       <c r="G10">
-        <f>SUM(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>2301</v>
+      </c>
+      <c r="I10">
+        <v>2392</v>
+      </c>
+      <c r="J10">
+        <v>2076</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="12">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C11">
@@ -37570,13 +39887,19 @@
         <v>107</v>
       </c>
       <c r="G11">
-        <f>SUM(C11:F11)</f>
+        <f t="shared" si="0"/>
         <v>2392</v>
+      </c>
+      <c r="I11">
+        <v>2389</v>
+      </c>
+      <c r="J11">
+        <v>2073</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12">
@@ -37592,15 +39915,21 @@
         <v>692</v>
       </c>
       <c r="G12">
-        <f>SUM(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>2392</v>
+      </c>
+      <c r="I12">
+        <v>2386</v>
+      </c>
+      <c r="J12">
+        <v>2070</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="12">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C13">
@@ -37616,13 +39945,19 @@
         <v>107</v>
       </c>
       <c r="G13">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" si="0"/>
         <v>2389</v>
+      </c>
+      <c r="I13">
+        <v>2364</v>
+      </c>
+      <c r="J13">
+        <v>2043</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C14">
@@ -37638,15 +39973,23 @@
         <v>691</v>
       </c>
       <c r="G14">
-        <f>SUM(C14:F14)</f>
+        <f t="shared" si="0"/>
         <v>2389</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(I9:I13)</f>
+        <v>2382.75</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(J9:J13)</f>
+        <v>2065.5</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="12">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15">
@@ -37662,7 +40005,7 @@
         <v>2070</v>
       </c>
       <c r="G15">
-        <f>SUM(C15:F15)</f>
+        <f t="shared" si="0"/>
         <v>2386</v>
       </c>
       <c r="O15">
@@ -37674,8 +40017,8 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C16">
@@ -37691,7 +40034,7 @@
         <v>316</v>
       </c>
       <c r="G16">
-        <f>SUM(C16:F16)</f>
+        <f t="shared" si="0"/>
         <v>2386</v>
       </c>
       <c r="O16">
@@ -37702,10 +40045,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="12">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C17">
@@ -37721,7 +40064,7 @@
         <v>107</v>
       </c>
       <c r="G17">
-        <f>SUM(C17:F17)</f>
+        <f t="shared" si="0"/>
         <v>2364</v>
       </c>
       <c r="O17">
@@ -37732,8 +40075,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C18">
@@ -37749,7 +40092,7 @@
         <v>681</v>
       </c>
       <c r="G18">
-        <f>SUM(C18:F18)</f>
+        <f t="shared" si="0"/>
         <v>2364</v>
       </c>
     </row>
@@ -37760,7 +40103,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C20">
@@ -37786,10 +40129,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="12">
         <v>1</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C21">
@@ -37814,13 +40157,13 @@
         <v>99</v>
       </c>
       <c r="J21">
-        <f>SUM(C21:I21)</f>
+        <f t="shared" ref="J21:J40" si="1">SUM(C21:I21)</f>
         <v>4590</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C22">
@@ -37845,15 +40188,21 @@
         <v>666</v>
       </c>
       <c r="J22">
-        <f>SUM(C22:I22)</f>
+        <f t="shared" si="1"/>
         <v>4590</v>
+      </c>
+      <c r="L22">
+        <v>4765</v>
+      </c>
+      <c r="M22">
+        <v>4128</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="12">
         <v>2</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C23">
@@ -37878,13 +40227,19 @@
         <v>107</v>
       </c>
       <c r="J23">
-        <f>SUM(C23:I23)</f>
+        <f t="shared" si="1"/>
         <v>4765</v>
+      </c>
+      <c r="L23">
+        <v>4765</v>
+      </c>
+      <c r="M23">
+        <v>4128</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C24">
@@ -37909,15 +40264,21 @@
         <v>688</v>
       </c>
       <c r="J24">
-        <f>SUM(C24:I24)</f>
+        <f t="shared" si="1"/>
         <v>4765</v>
+      </c>
+      <c r="L24">
+        <v>4783</v>
+      </c>
+      <c r="M24">
+        <v>4146</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="12">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C25">
@@ -37942,13 +40303,19 @@
         <v>107</v>
       </c>
       <c r="J25">
-        <f>SUM(C25:I25)</f>
+        <f t="shared" si="1"/>
         <v>4765</v>
+      </c>
+      <c r="L25">
+        <v>4759</v>
+      </c>
+      <c r="M25">
+        <v>4122</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C26">
@@ -37973,15 +40340,21 @@
         <v>688</v>
       </c>
       <c r="J26">
-        <f>SUM(C26:I26)</f>
+        <f t="shared" si="1"/>
         <v>4765</v>
+      </c>
+      <c r="L26">
+        <v>4789</v>
+      </c>
+      <c r="M26">
+        <v>4152</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="12">
         <v>4</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C27">
@@ -38006,13 +40379,19 @@
         <v>107</v>
       </c>
       <c r="J27">
-        <f>SUM(C27:I27)</f>
+        <f t="shared" si="1"/>
         <v>4783</v>
+      </c>
+      <c r="L27">
+        <v>4771</v>
+      </c>
+      <c r="M27">
+        <v>4134</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C28">
@@ -38037,15 +40416,21 @@
         <v>691</v>
       </c>
       <c r="J28">
-        <f>SUM(C28:I28)</f>
+        <f t="shared" si="1"/>
         <v>4783</v>
+      </c>
+      <c r="L28">
+        <v>4734</v>
+      </c>
+      <c r="M28">
+        <v>4092</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="12">
         <v>5</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C29">
@@ -38070,13 +40455,19 @@
         <v>107</v>
       </c>
       <c r="J29">
-        <f>SUM(C29:I29)</f>
+        <f t="shared" si="1"/>
         <v>4759</v>
+      </c>
+      <c r="L29">
+        <v>4801</v>
+      </c>
+      <c r="M29">
+        <v>4164</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C30">
@@ -38101,8 +40492,14 @@
         <v>687</v>
       </c>
       <c r="J30">
-        <f>SUM(C30:I30)</f>
+        <f t="shared" si="1"/>
         <v>4759</v>
+      </c>
+      <c r="L30">
+        <v>4783</v>
+      </c>
+      <c r="M30">
+        <v>4146</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -38128,8 +40525,16 @@
         <v>107</v>
       </c>
       <c r="J31">
-        <f>SUM(C31:I31)</f>
+        <f t="shared" si="1"/>
         <v>4789</v>
+      </c>
+      <c r="L31">
+        <f>AVERAGE(L22:L30)</f>
+        <v>4772.2222222222226</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGE(M22:M30)</f>
+        <v>4134.666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -38155,11 +40560,11 @@
         <v>692</v>
       </c>
       <c r="J32">
-        <f>SUM(C32:I32)</f>
+        <f t="shared" si="1"/>
         <v>4789</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>102</v>
       </c>
@@ -38182,11 +40587,11 @@
         <v>4134</v>
       </c>
       <c r="J33">
-        <f>SUM(C33:I33)</f>
+        <f t="shared" si="1"/>
         <v>4771</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>689</v>
       </c>
@@ -38209,11 +40614,11 @@
         <v>637</v>
       </c>
       <c r="J34">
-        <f>SUM(C34:I34)</f>
+        <f t="shared" si="1"/>
         <v>4771</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>4092</v>
       </c>
@@ -38236,11 +40641,11 @@
         <v>107</v>
       </c>
       <c r="J35">
-        <f>SUM(C35:I35)</f>
+        <f t="shared" si="1"/>
         <v>4734</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>642</v>
       </c>
@@ -38263,11 +40668,11 @@
         <v>682</v>
       </c>
       <c r="J36">
-        <f>SUM(C36:I36)</f>
+        <f t="shared" si="1"/>
         <v>4734</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>102</v>
       </c>
@@ -38290,11 +40695,11 @@
         <v>107</v>
       </c>
       <c r="J37">
-        <f>SUM(C37:I37)</f>
+        <f t="shared" si="1"/>
         <v>4801</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>694</v>
       </c>
@@ -38317,11 +40722,11 @@
         <v>694</v>
       </c>
       <c r="J38">
-        <f>SUM(C38:I38)</f>
+        <f t="shared" si="1"/>
         <v>4801</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>102</v>
       </c>
@@ -38344,11 +40749,11 @@
         <v>107</v>
       </c>
       <c r="J39">
-        <f>SUM(C39:I39)</f>
+        <f t="shared" si="1"/>
         <v>4783</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>691</v>
       </c>
@@ -38371,18 +40776,18 @@
         <v>691</v>
       </c>
       <c r="J40">
-        <f>SUM(C40:I40)</f>
+        <f t="shared" si="1"/>
         <v>4783</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J41">
         <f>AVERAGE(J21:J40)</f>
         <v>4754</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C42">
@@ -38416,11 +40821,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>1</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C43">
@@ -38454,13 +40859,13 @@
         <v>99</v>
       </c>
       <c r="M43">
-        <f>SUM(C43:L43)</f>
+        <f t="shared" ref="M43:M62" si="2">SUM(C43:L43)</f>
         <v>6876</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C44">
@@ -38494,15 +40899,21 @@
         <v>665</v>
       </c>
       <c r="M44">
-        <f>SUM(C44:L44)</f>
+        <f t="shared" si="2"/>
         <v>6876</v>
       </c>
+      <c r="O44">
+        <v>7177</v>
+      </c>
+      <c r="P44">
+        <v>6219</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
         <v>2</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C45">
@@ -38536,13 +40947,19 @@
         <v>107</v>
       </c>
       <c r="M45">
-        <f>SUM(C45:L45)</f>
+        <f t="shared" si="2"/>
         <v>7177</v>
       </c>
+      <c r="O45">
+        <v>7195</v>
+      </c>
+      <c r="P45">
+        <v>6237</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C46">
@@ -38576,15 +40993,21 @@
         <v>691</v>
       </c>
       <c r="M46">
-        <f>SUM(C46:L46)</f>
+        <f t="shared" si="2"/>
         <v>7177</v>
       </c>
+      <c r="O46">
+        <v>7177</v>
+      </c>
+      <c r="P46">
+        <v>6219</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
         <v>3</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C47">
@@ -38618,13 +41041,19 @@
         <v>107</v>
       </c>
       <c r="M47">
-        <f>SUM(C47:L47)</f>
+        <f t="shared" si="2"/>
         <v>7195</v>
       </c>
+      <c r="O47">
+        <v>7186</v>
+      </c>
+      <c r="P47">
+        <v>6228</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C48">
@@ -38658,15 +41087,21 @@
         <v>693</v>
       </c>
       <c r="M48">
-        <f>SUM(C48:L48)</f>
+        <f t="shared" si="2"/>
         <v>7195</v>
       </c>
+      <c r="O48">
+        <v>7159</v>
+      </c>
+      <c r="P48">
+        <v>6201</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
         <v>4</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C49">
@@ -38700,13 +41135,19 @@
         <v>107</v>
       </c>
       <c r="M49">
-        <f>SUM(C49:L49)</f>
+        <f t="shared" si="2"/>
         <v>7177</v>
       </c>
+      <c r="O49">
+        <v>7168</v>
+      </c>
+      <c r="P49">
+        <v>6210</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C50">
@@ -38740,15 +41181,21 @@
         <v>691</v>
       </c>
       <c r="M50">
-        <f>SUM(C50:L50)</f>
+        <f t="shared" si="2"/>
         <v>7177</v>
       </c>
+      <c r="O50">
+        <v>7168</v>
+      </c>
+      <c r="P50">
+        <v>6210</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
         <v>5</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C51">
@@ -38782,13 +41229,19 @@
         <v>107</v>
       </c>
       <c r="M51">
-        <f>SUM(C51:L51)</f>
+        <f t="shared" si="2"/>
         <v>7186</v>
       </c>
+      <c r="O51">
+        <v>7186</v>
+      </c>
+      <c r="P51">
+        <v>6228</v>
+      </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C52">
@@ -38822,11 +41275,17 @@
         <v>692</v>
       </c>
       <c r="M52">
-        <f>SUM(C52:L52)</f>
+        <f t="shared" si="2"/>
         <v>7186</v>
       </c>
+      <c r="O52">
+        <v>7177</v>
+      </c>
+      <c r="P52">
+        <v>6219</v>
+      </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>102</v>
       </c>
@@ -38858,11 +41317,19 @@
         <v>107</v>
       </c>
       <c r="M53">
-        <f>SUM(C53:L53)</f>
+        <f t="shared" si="2"/>
         <v>7159</v>
       </c>
+      <c r="O53">
+        <f>AVERAGE(O43:O52)</f>
+        <v>7177</v>
+      </c>
+      <c r="P53">
+        <f>AVERAGE(P43:P52)</f>
+        <v>6219</v>
+      </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>689</v>
       </c>
@@ -38894,11 +41361,11 @@
         <v>689</v>
       </c>
       <c r="M54">
-        <f>SUM(C54:L54)</f>
+        <f t="shared" si="2"/>
         <v>7159</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>102</v>
       </c>
@@ -38930,11 +41397,11 @@
         <v>107</v>
       </c>
       <c r="M55">
-        <f>SUM(C55:L55)</f>
+        <f t="shared" si="2"/>
         <v>7168</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>690</v>
       </c>
@@ -38966,11 +41433,11 @@
         <v>690</v>
       </c>
       <c r="M56">
-        <f>SUM(C56:L56)</f>
+        <f t="shared" si="2"/>
         <v>7168</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>102</v>
       </c>
@@ -39002,11 +41469,11 @@
         <v>107</v>
       </c>
       <c r="M57">
-        <f>SUM(C57:L57)</f>
+        <f t="shared" si="2"/>
         <v>7168</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>690</v>
       </c>
@@ -39038,11 +41505,11 @@
         <v>690</v>
       </c>
       <c r="M58">
-        <f>SUM(C58:L58)</f>
+        <f t="shared" si="2"/>
         <v>7168</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>102</v>
       </c>
@@ -39074,11 +41541,11 @@
         <v>107</v>
       </c>
       <c r="M59">
-        <f>SUM(C59:L59)</f>
+        <f t="shared" si="2"/>
         <v>7186</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>692</v>
       </c>
@@ -39110,11 +41577,11 @@
         <v>692</v>
       </c>
       <c r="M60">
-        <f>SUM(C60:L60)</f>
+        <f t="shared" si="2"/>
         <v>7186</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>102</v>
       </c>
@@ -39146,11 +41613,11 @@
         <v>6219</v>
       </c>
       <c r="M61">
-        <f>SUM(C61:L61)</f>
+        <f t="shared" si="2"/>
         <v>7177</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>691</v>
       </c>
@@ -39182,26 +41649,26 @@
         <v>958</v>
       </c>
       <c r="M62">
-        <f>SUM(C62:L62)</f>
+        <f t="shared" si="2"/>
         <v>7177</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M63">
         <f>AVERAGE(M43:M62)</f>
         <v>7146.9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C66">
@@ -39234,7 +41701,7 @@
       <c r="L66">
         <v>10</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="P66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="Q66">
@@ -39250,11 +41717,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
         <v>1</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C67">
@@ -39288,13 +41755,13 @@
         <v>99</v>
       </c>
       <c r="M67">
-        <f>SUM(C67:L67)</f>
+        <f t="shared" ref="M67:M86" si="3">SUM(C67:L67)</f>
         <v>9486</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="12">
         <v>1</v>
       </c>
-      <c r="P67" s="9" t="s">
+      <c r="P67" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q67">
@@ -39310,13 +41777,13 @@
         <v>99</v>
       </c>
       <c r="U67">
-        <f>SUM(Q67:T67)</f>
+        <f t="shared" ref="U67:U86" si="4">SUM(Q67:T67)</f>
         <v>3150</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="9" t="s">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C68">
@@ -39350,11 +41817,11 @@
         <v>955</v>
       </c>
       <c r="M68">
-        <f>SUM(C68:L68)</f>
+        <f t="shared" si="3"/>
         <v>9486</v>
       </c>
-      <c r="O68" s="6"/>
-      <c r="P68" s="9" t="s">
+      <c r="O68" s="12"/>
+      <c r="P68" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q68">
@@ -39370,15 +41837,21 @@
         <v>951</v>
       </c>
       <c r="U68">
-        <f>SUM(Q68:T68)</f>
+        <f t="shared" si="4"/>
         <v>3150</v>
       </c>
+      <c r="W68">
+        <v>3271</v>
+      </c>
+      <c r="X68">
+        <v>9796</v>
+      </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
         <v>2</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C69">
@@ -39412,13 +41885,13 @@
         <v>107</v>
       </c>
       <c r="M69">
-        <f>SUM(C69:L69)</f>
+        <f t="shared" si="3"/>
         <v>9796</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="12">
         <v>2</v>
       </c>
-      <c r="P69" s="9" t="s">
+      <c r="P69" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q69">
@@ -39434,13 +41907,19 @@
         <v>107</v>
       </c>
       <c r="U69">
-        <f>SUM(Q69:T69)</f>
+        <f t="shared" si="4"/>
         <v>3271</v>
       </c>
+      <c r="W69">
+        <v>3265</v>
+      </c>
+      <c r="X69">
+        <v>9760</v>
+      </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9" t="s">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C70">
@@ -39474,11 +41953,11 @@
         <v>982</v>
       </c>
       <c r="M70">
-        <f>SUM(C70:L70)</f>
+        <f t="shared" si="3"/>
         <v>9796</v>
       </c>
-      <c r="O70" s="6"/>
-      <c r="P70" s="9" t="s">
+      <c r="O70" s="12"/>
+      <c r="P70" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q70">
@@ -39494,15 +41973,21 @@
         <v>985</v>
       </c>
       <c r="U70">
-        <f>SUM(Q70:T70)</f>
+        <f t="shared" si="4"/>
         <v>3271</v>
       </c>
+      <c r="W70">
+        <v>3250</v>
+      </c>
+      <c r="X70">
+        <v>9796</v>
+      </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
         <v>3</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C71">
@@ -39536,13 +42021,13 @@
         <v>107</v>
       </c>
       <c r="M71">
-        <f>SUM(C71:L71)</f>
+        <f t="shared" si="3"/>
         <v>9760</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="12">
         <v>3</v>
       </c>
-      <c r="P71" s="9" t="s">
+      <c r="P71" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q71">
@@ -39558,13 +42043,19 @@
         <v>107</v>
       </c>
       <c r="U71">
-        <f>SUM(Q71:T71)</f>
+        <f t="shared" si="4"/>
         <v>3265</v>
       </c>
+      <c r="W71">
+        <v>3237</v>
+      </c>
+      <c r="X71">
+        <v>9769</v>
+      </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9" t="s">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C72">
@@ -39598,11 +42089,11 @@
         <v>978</v>
       </c>
       <c r="M72">
-        <f>SUM(C72:L72)</f>
+        <f t="shared" si="3"/>
         <v>9760</v>
       </c>
-      <c r="O72" s="6"/>
-      <c r="P72" s="9" t="s">
+      <c r="O72" s="12"/>
+      <c r="P72" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q72">
@@ -39618,15 +42109,21 @@
         <v>983</v>
       </c>
       <c r="U72">
-        <f>SUM(Q72:T72)</f>
+        <f t="shared" si="4"/>
         <v>3265</v>
       </c>
+      <c r="W72">
+        <v>3253</v>
+      </c>
+      <c r="X72">
+        <v>9787</v>
+      </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
         <v>4</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C73">
@@ -39660,13 +42157,13 @@
         <v>107</v>
       </c>
       <c r="M73">
-        <f>SUM(C73:L73)</f>
+        <f t="shared" si="3"/>
         <v>9796</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="12">
         <v>4</v>
       </c>
-      <c r="P73" s="9" t="s">
+      <c r="P73" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q73">
@@ -39682,13 +42179,19 @@
         <v>2934</v>
       </c>
       <c r="U73">
-        <f>SUM(Q73:T73)</f>
+        <f t="shared" si="4"/>
         <v>3250</v>
       </c>
+      <c r="W73">
+        <v>3256</v>
+      </c>
+      <c r="X73">
+        <v>9751</v>
+      </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9" t="s">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C74">
@@ -39722,11 +42225,11 @@
         <v>982</v>
       </c>
       <c r="M74">
-        <f>SUM(C74:L74)</f>
+        <f t="shared" si="3"/>
         <v>9796</v>
       </c>
-      <c r="O74" s="6"/>
-      <c r="P74" s="9" t="s">
+      <c r="O74" s="12"/>
+      <c r="P74" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q74">
@@ -39742,15 +42245,21 @@
         <v>316</v>
       </c>
       <c r="U74">
-        <f>SUM(Q74:T74)</f>
+        <f t="shared" si="4"/>
         <v>3250</v>
       </c>
+      <c r="W74">
+        <v>3256</v>
+      </c>
+      <c r="X74">
+        <v>9787</v>
+      </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
         <v>5</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C75">
@@ -39784,13 +42293,13 @@
         <v>107</v>
       </c>
       <c r="M75">
-        <f>SUM(C75:L75)</f>
+        <f t="shared" si="3"/>
         <v>9769</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75" s="12">
         <v>5</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="P75" s="8" t="s">
         <v>16</v>
       </c>
       <c r="Q75">
@@ -39806,13 +42315,19 @@
         <v>107</v>
       </c>
       <c r="U75">
-        <f>SUM(Q75:T75)</f>
+        <f t="shared" si="4"/>
         <v>3237</v>
       </c>
+      <c r="W75">
+        <v>3228</v>
+      </c>
+      <c r="X75">
+        <v>9787</v>
+      </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="9" t="s">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C76">
@@ -39846,11 +42361,11 @@
         <v>979</v>
       </c>
       <c r="M76">
-        <f>SUM(C76:L76)</f>
+        <f t="shared" si="3"/>
         <v>9769</v>
       </c>
-      <c r="O76" s="6"/>
-      <c r="P76" s="9" t="s">
+      <c r="O76" s="12"/>
+      <c r="P76" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q76">
@@ -39866,11 +42381,17 @@
         <v>972</v>
       </c>
       <c r="U76">
-        <f>SUM(Q76:T76)</f>
+        <f t="shared" si="4"/>
         <v>3237</v>
       </c>
+      <c r="W76">
+        <v>3259</v>
+      </c>
+      <c r="X76">
+        <v>9787</v>
+      </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>102</v>
       </c>
@@ -39902,7 +42423,7 @@
         <v>107</v>
       </c>
       <c r="M77">
-        <f>SUM(C77:L77)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q77">
@@ -39918,11 +42439,19 @@
         <v>107</v>
       </c>
       <c r="U77">
-        <f>SUM(Q77:T77)</f>
+        <f t="shared" si="4"/>
         <v>3253</v>
       </c>
+      <c r="W77">
+        <f>AVERAGE(W67:W76)</f>
+        <v>3252.7777777777778</v>
+      </c>
+      <c r="X77">
+        <f>AVERAGE(X67:X76)</f>
+        <v>9780</v>
+      </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>981</v>
       </c>
@@ -39954,7 +42483,7 @@
         <v>981</v>
       </c>
       <c r="M78">
-        <f>SUM(C78:L78)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q78">
@@ -39970,11 +42499,11 @@
         <v>979</v>
       </c>
       <c r="U78">
-        <f>SUM(Q78:T78)</f>
+        <f t="shared" si="4"/>
         <v>3253</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>102</v>
       </c>
@@ -40006,7 +42535,7 @@
         <v>107</v>
       </c>
       <c r="M79">
-        <f>SUM(C79:L79)</f>
+        <f t="shared" si="3"/>
         <v>9751</v>
       </c>
       <c r="Q79">
@@ -40022,11 +42551,11 @@
         <v>107</v>
       </c>
       <c r="U79">
-        <f>SUM(Q79:T79)</f>
+        <f t="shared" si="4"/>
         <v>3256</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>977</v>
       </c>
@@ -40058,7 +42587,7 @@
         <v>977</v>
       </c>
       <c r="M80">
-        <f>SUM(C80:L80)</f>
+        <f t="shared" si="3"/>
         <v>9751</v>
       </c>
       <c r="Q80">
@@ -40074,11 +42603,17 @@
         <v>980</v>
       </c>
       <c r="U80">
-        <f>SUM(Q80:T80)</f>
+        <f t="shared" si="4"/>
         <v>3256</v>
       </c>
+      <c r="W80">
+        <v>2955</v>
+      </c>
+      <c r="X80">
+        <v>8838</v>
+      </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>102</v>
       </c>
@@ -40110,7 +42645,7 @@
         <v>107</v>
       </c>
       <c r="M81">
-        <f>SUM(C81:L81)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q81">
@@ -40126,11 +42661,17 @@
         <v>2940</v>
       </c>
       <c r="U81">
-        <f>SUM(Q81:T81)</f>
+        <f t="shared" si="4"/>
         <v>3256</v>
       </c>
+      <c r="W81">
+        <v>2949</v>
+      </c>
+      <c r="X81">
+        <v>8802</v>
+      </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>981</v>
       </c>
@@ -40162,7 +42703,7 @@
         <v>981</v>
       </c>
       <c r="M82">
-        <f>SUM(C82:L82)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q82">
@@ -40178,11 +42719,17 @@
         <v>316</v>
       </c>
       <c r="U82">
-        <f>SUM(Q82:T82)</f>
+        <f t="shared" si="4"/>
         <v>3256</v>
       </c>
+      <c r="W82">
+        <v>2934</v>
+      </c>
+      <c r="X82">
+        <v>8838</v>
+      </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>102</v>
       </c>
@@ -40214,7 +42761,7 @@
         <v>107</v>
       </c>
       <c r="M83">
-        <f>SUM(C83:L83)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q83">
@@ -40230,11 +42777,17 @@
         <v>107</v>
       </c>
       <c r="U83">
-        <f>SUM(Q83:T83)</f>
+        <f t="shared" si="4"/>
         <v>3228</v>
       </c>
+      <c r="W83">
+        <v>2916</v>
+      </c>
+      <c r="X83">
+        <v>8811</v>
+      </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>981</v>
       </c>
@@ -40266,7 +42819,7 @@
         <v>981</v>
       </c>
       <c r="M84">
-        <f>SUM(C84:L84)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q84">
@@ -40282,11 +42835,17 @@
         <v>969</v>
       </c>
       <c r="U84">
-        <f>SUM(Q84:T84)</f>
+        <f t="shared" si="4"/>
         <v>3228</v>
       </c>
+      <c r="W84">
+        <v>2937</v>
+      </c>
+      <c r="X84">
+        <v>8829</v>
+      </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>102</v>
       </c>
@@ -40318,7 +42877,7 @@
         <v>8829</v>
       </c>
       <c r="M85">
-        <f>SUM(C85:L85)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q85">
@@ -40334,11 +42893,17 @@
         <v>107</v>
       </c>
       <c r="U85">
-        <f>SUM(Q85:T85)</f>
+        <f t="shared" si="4"/>
         <v>3259</v>
       </c>
+      <c r="W85">
+        <v>2940</v>
+      </c>
+      <c r="X85">
+        <v>8793</v>
+      </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>981</v>
       </c>
@@ -40370,7 +42935,7 @@
         <v>958</v>
       </c>
       <c r="M86">
-        <f>SUM(C86:L86)</f>
+        <f t="shared" si="3"/>
         <v>9787</v>
       </c>
       <c r="Q86">
@@ -40386,11 +42951,17 @@
         <v>981</v>
       </c>
       <c r="U86">
-        <f>SUM(Q86:T86)</f>
+        <f t="shared" si="4"/>
         <v>3259</v>
       </c>
+      <c r="W86">
+        <v>2940</v>
+      </c>
+      <c r="X86">
+        <v>8829</v>
+      </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M87">
         <f>AVERAGE(M67:M86)</f>
         <v>9750.6</v>
@@ -40399,14 +42970,36 @@
         <f>AVERAGE(U67:U86)</f>
         <v>3242.5</v>
       </c>
+      <c r="W87">
+        <v>2907</v>
+      </c>
+      <c r="X87">
+        <v>8829</v>
+      </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>2943</v>
+      </c>
+      <c r="X88">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="W89">
+        <f>AVERAGE(W79:W88)</f>
+        <v>2935.6666666666665</v>
+      </c>
+      <c r="X89">
+        <f>AVERAGE(X79:X88)</f>
+        <v>8822</v>
+      </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C90">
@@ -40421,12 +43014,21 @@
       <c r="F90">
         <v>4</v>
       </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>7</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
         <v>1</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C91">
@@ -40442,7 +43044,7 @@
         <v>99</v>
       </c>
       <c r="G91">
-        <f>SUM(C91:F91)</f>
+        <f t="shared" ref="G91:G110" si="5">SUM(C91:F91)</f>
         <v>4893</v>
       </c>
       <c r="L91">
@@ -40451,10 +43053,16 @@
       <c r="M91">
         <v>2366.4</v>
       </c>
+      <c r="N91">
+        <v>4754</v>
+      </c>
+      <c r="O91">
+        <v>7146.9</v>
+      </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="9" t="s">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C92">
@@ -40470,8 +43078,14 @@
         <v>1532</v>
       </c>
       <c r="G92">
-        <f>SUM(C92:F92)</f>
+        <f t="shared" si="5"/>
         <v>4893</v>
+      </c>
+      <c r="I92">
+        <v>4999</v>
+      </c>
+      <c r="J92">
+        <v>4683</v>
       </c>
       <c r="L92">
         <v>256</v>
@@ -40479,12 +43093,18 @@
       <c r="M92">
         <v>3242.5</v>
       </c>
+      <c r="N92">
+        <v>6513</v>
+      </c>
+      <c r="O92">
+        <v>9750.6</v>
+      </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
         <v>2</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C93">
@@ -40500,8 +43120,14 @@
         <v>107</v>
       </c>
       <c r="G93">
-        <f>SUM(C93:F93)</f>
+        <f t="shared" si="5"/>
         <v>4999</v>
+      </c>
+      <c r="I93">
+        <v>4984</v>
+      </c>
+      <c r="J93">
+        <v>4668</v>
       </c>
       <c r="L93">
         <v>512</v>
@@ -40510,9 +43136,9 @@
         <v>4974.3999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="9" t="s">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C94">
@@ -40528,15 +43154,27 @@
         <v>1561</v>
       </c>
       <c r="G94">
-        <f>SUM(C94:F94)</f>
+        <f t="shared" si="5"/>
         <v>4999</v>
       </c>
+      <c r="I94">
+        <v>4993</v>
+      </c>
+      <c r="J94">
+        <v>4677</v>
+      </c>
+      <c r="L94">
+        <v>1024</v>
+      </c>
+      <c r="M94">
+        <v>8451.2999999999993</v>
+      </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
         <v>3</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C95">
@@ -40552,13 +43190,25 @@
         <v>107</v>
       </c>
       <c r="G95">
-        <f>SUM(C95:F95)</f>
+        <f t="shared" si="5"/>
         <v>4984</v>
       </c>
+      <c r="I95">
+        <v>4959</v>
+      </c>
+      <c r="J95">
+        <v>4638</v>
+      </c>
+      <c r="L95">
+        <v>2048</v>
+      </c>
+      <c r="M95">
+        <v>15402.1</v>
+      </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C96">
@@ -40574,15 +43224,36 @@
         <v>1556</v>
       </c>
       <c r="G96">
-        <f>SUM(C96:F96)</f>
+        <f t="shared" si="5"/>
         <v>4984</v>
       </c>
+      <c r="I96">
+        <v>4987</v>
+      </c>
+      <c r="J96">
+        <v>4671</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96">
+        <v>6656</v>
+      </c>
+      <c r="M96">
+        <v>46680.800000000003</v>
+      </c>
+      <c r="N96">
+        <v>93653.8</v>
+      </c>
+      <c r="O96">
+        <v>140793.93</v>
+      </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
         <v>4</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C97">
@@ -40598,13 +43269,28 @@
         <v>4677</v>
       </c>
       <c r="G97">
-        <f>SUM(C97:F97)</f>
+        <f t="shared" si="5"/>
         <v>4993</v>
       </c>
+      <c r="I97">
+        <v>4984</v>
+      </c>
+      <c r="J97">
+        <v>4668</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>7</v>
+      </c>
+      <c r="O97">
+        <v>10</v>
+      </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="9" t="s">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C98">
@@ -40620,15 +43306,33 @@
         <v>316</v>
       </c>
       <c r="G98">
-        <f>SUM(C98:F98)</f>
+        <f t="shared" si="5"/>
         <v>4993</v>
       </c>
+      <c r="I98">
+        <v>5002</v>
+      </c>
+      <c r="J98">
+        <v>4686</v>
+      </c>
+      <c r="L98">
+        <v>128</v>
+      </c>
+      <c r="M98">
+        <v>2076</v>
+      </c>
+      <c r="N98">
+        <v>4754</v>
+      </c>
+      <c r="O98">
+        <v>7146.9</v>
+      </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
         <v>5</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C99">
@@ -40644,13 +43348,25 @@
         <v>107</v>
       </c>
       <c r="G99">
-        <f>SUM(C99:F99)</f>
+        <f t="shared" si="5"/>
         <v>4959</v>
       </c>
+      <c r="I99">
+        <v>4965</v>
+      </c>
+      <c r="J99">
+        <v>4644</v>
+      </c>
+      <c r="L99">
+        <v>256</v>
+      </c>
+      <c r="M99">
+        <v>2949</v>
+      </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="9" t="s">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C100">
@@ -40666,11 +43382,23 @@
         <v>1546</v>
       </c>
       <c r="G100">
-        <f>SUM(C100:F100)</f>
+        <f t="shared" si="5"/>
         <v>4959</v>
       </c>
+      <c r="I100">
+        <v>4978</v>
+      </c>
+      <c r="J100">
+        <v>4662</v>
+      </c>
+      <c r="L100">
+        <v>512</v>
+      </c>
+      <c r="M100">
+        <v>4668</v>
+      </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>102</v>
       </c>
@@ -40684,11 +43412,22 @@
         <v>107</v>
       </c>
       <c r="G101">
-        <f>SUM(C101:F101)</f>
+        <f t="shared" si="5"/>
         <v>4987</v>
       </c>
+      <c r="I101">
+        <f>AVERAGE(I91:I100)</f>
+        <v>4983.4444444444443</v>
+      </c>
+      <c r="J101">
+        <f>AVERAGE(J91:J100)</f>
+        <v>4666.333333333333</v>
+      </c>
+      <c r="L101">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>1557</v>
       </c>
@@ -40702,11 +43441,14 @@
         <v>1557</v>
       </c>
       <c r="G102">
-        <f>SUM(C102:F102)</f>
+        <f t="shared" si="5"/>
         <v>4987</v>
       </c>
+      <c r="L102">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>102</v>
       </c>
@@ -40720,11 +43462,14 @@
         <v>107</v>
       </c>
       <c r="G103">
-        <f>SUM(C103:F103)</f>
+        <f t="shared" si="5"/>
         <v>4984</v>
       </c>
+      <c r="L103">
+        <v>6656</v>
+      </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>1556</v>
       </c>
@@ -40738,11 +43483,11 @@
         <v>1556</v>
       </c>
       <c r="G104">
-        <f>SUM(C104:F104)</f>
+        <f t="shared" si="5"/>
         <v>4984</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>102</v>
       </c>
@@ -40756,11 +43501,14 @@
         <v>4686</v>
       </c>
       <c r="G105">
-        <f>SUM(C105:F105)</f>
+        <f t="shared" si="5"/>
         <v>5002</v>
       </c>
+      <c r="R105" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>1562</v>
       </c>
@@ -40774,11 +43522,33 @@
         <v>316</v>
       </c>
       <c r="G106">
-        <f>SUM(C106:F106)</f>
+        <f t="shared" si="5"/>
         <v>5002</v>
       </c>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14">
+        <v>4</v>
+      </c>
+      <c r="N106" s="14">
+        <v>7</v>
+      </c>
+      <c r="O106" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14">
+        <v>4</v>
+      </c>
+      <c r="T106" s="14">
+        <v>7</v>
+      </c>
+      <c r="U106" s="14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>4644</v>
       </c>
@@ -40792,11 +43562,35 @@
         <v>107</v>
       </c>
       <c r="G107">
-        <f>SUM(C107:F107)</f>
+        <f t="shared" si="5"/>
         <v>4965</v>
       </c>
+      <c r="L107">
+        <v>128</v>
+      </c>
+      <c r="M107">
+        <v>2382.75</v>
+      </c>
+      <c r="N107">
+        <v>4772.2</v>
+      </c>
+      <c r="O107">
+        <v>7177</v>
+      </c>
+      <c r="R107">
+        <v>128</v>
+      </c>
+      <c r="S107">
+        <v>2065.5</v>
+      </c>
+      <c r="T107">
+        <v>4134.7</v>
+      </c>
+      <c r="U107">
+        <v>6219</v>
+      </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>321</v>
       </c>
@@ -40810,11 +43604,38 @@
         <v>1548</v>
       </c>
       <c r="G108">
-        <f>SUM(C108:F108)</f>
+        <f t="shared" si="5"/>
         <v>4965</v>
       </c>
+      <c r="K108">
+        <v>1.302</v>
+      </c>
+      <c r="L108">
+        <v>256</v>
+      </c>
+      <c r="M108">
+        <v>3252.8</v>
+      </c>
+      <c r="N108">
+        <v>6516.4</v>
+      </c>
+      <c r="O108">
+        <v>9780</v>
+      </c>
+      <c r="R108">
+        <v>256</v>
+      </c>
+      <c r="S108">
+        <v>2935.7</v>
+      </c>
+      <c r="T108">
+        <v>5878.9</v>
+      </c>
+      <c r="U108">
+        <v>8822</v>
+      </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>102</v>
       </c>
@@ -40828,11 +43649,39 @@
         <v>107</v>
       </c>
       <c r="G109">
-        <f>SUM(C109:F109)</f>
+        <f t="shared" si="5"/>
         <v>4978</v>
       </c>
+      <c r="L109">
+        <v>512</v>
+      </c>
+      <c r="M109">
+        <v>4983.3999999999996</v>
+      </c>
+      <c r="N109">
+        <f>13.627*L109+3028</f>
+        <v>10005.024000000001</v>
+      </c>
+      <c r="O109">
+        <f>22.336*L109+4574</f>
+        <v>16010.031999999999</v>
+      </c>
+      <c r="R109">
+        <v>512</v>
+      </c>
+      <c r="S109">
+        <v>4666.3</v>
+      </c>
+      <c r="T109">
+        <f>13.627*R109+2390.5</f>
+        <v>9367.5240000000013</v>
+      </c>
+      <c r="U109">
+        <f>20.336*R109+3616</f>
+        <v>14028.031999999999</v>
+      </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>1554</v>
       </c>
@@ -40846,18 +43695,719 @@
         <v>1554</v>
       </c>
       <c r="G110">
-        <f>SUM(C110:F110)</f>
+        <f t="shared" si="5"/>
         <v>4978</v>
       </c>
+      <c r="L110">
+        <v>1024</v>
+      </c>
+      <c r="M110">
+        <f>6.7708*L110+1517.5</f>
+        <v>8450.7992000000013</v>
+      </c>
+      <c r="N110">
+        <f>13.627*L110+3028</f>
+        <v>16982.048000000003</v>
+      </c>
+      <c r="O110">
+        <f>22.336*L110+4574</f>
+        <v>27446.063999999998</v>
+      </c>
+      <c r="R110">
+        <v>1024</v>
+      </c>
+      <c r="S110">
+        <f>6.7711*R110+1200.2</f>
+        <v>8133.8063999999995</v>
+      </c>
+      <c r="T110">
+        <f>13.627*R110+2390.5</f>
+        <v>16344.548000000001</v>
+      </c>
+      <c r="U110">
+        <f>20.336*R110+3616</f>
+        <v>24440.063999999998</v>
+      </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G111">
         <f>AVERAGE(G91:G110)</f>
         <v>4974.3999999999996</v>
       </c>
+      <c r="L111">
+        <v>2048</v>
+      </c>
+      <c r="M111">
+        <f>6.7708*L111+1517.5</f>
+        <v>15384.098400000001</v>
+      </c>
+      <c r="N111">
+        <f>13.627*L111+3028</f>
+        <v>30936.096000000001</v>
+      </c>
+      <c r="O111">
+        <f>22.336*L111+4574</f>
+        <v>50318.127999999997</v>
+      </c>
+      <c r="R111">
+        <v>2048</v>
+      </c>
+      <c r="S111">
+        <f>6.7711*R111+1200.2</f>
+        <v>15067.4128</v>
+      </c>
+      <c r="T111">
+        <f>13.627*R111+2390.5</f>
+        <v>30298.596000000001</v>
+      </c>
+      <c r="U111">
+        <f>20.336*R111+3616</f>
+        <v>45264.127999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>6656</v>
+      </c>
+      <c r="M112">
+        <f>6.7708*L112+1517.5</f>
+        <v>46583.944800000005</v>
+      </c>
+      <c r="N112">
+        <f>13.627*L112+3028</f>
+        <v>93729.312000000005</v>
+      </c>
+      <c r="O112">
+        <f>22.336*L112+4574</f>
+        <v>153242.416</v>
+      </c>
+      <c r="R112">
+        <v>6656</v>
+      </c>
+      <c r="S112">
+        <f>6.7711*R112+1200.2</f>
+        <v>46268.641599999995</v>
+      </c>
+      <c r="T112">
+        <f>13.627*R112+2390.5</f>
+        <v>93091.812000000005</v>
+      </c>
+      <c r="U112">
+        <f>20.336*R112+3616</f>
+        <v>138972.416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K116" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P116">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>46680.800000000003</v>
+      </c>
+      <c r="D117">
+        <v>46.680800000000005</v>
+      </c>
+      <c r="E117">
+        <f>(D117/B117)</f>
+        <v>11.670200000000001</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>46583.95</v>
+      </c>
+      <c r="N117">
+        <v>46.583949999999994</v>
+      </c>
+      <c r="O117">
+        <f>N117/L117</f>
+        <v>11.645987499999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>93653.8</v>
+      </c>
+      <c r="D118">
+        <v>93.653800000000004</v>
+      </c>
+      <c r="E118">
+        <f>(D118/B118)</f>
+        <v>13.379114285714286</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>93729.31</v>
+      </c>
+      <c r="N118">
+        <v>93.729309999999998</v>
+      </c>
+      <c r="O118">
+        <f>N118/L118</f>
+        <v>13.389901428571429</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>140793.93</v>
+      </c>
+      <c r="D119">
+        <v>140.79392999999999</v>
+      </c>
+      <c r="E119">
+        <f>(D119/B119)</f>
+        <v>14.079393</v>
+      </c>
+      <c r="L119">
+        <v>10</v>
+      </c>
+      <c r="M119">
+        <v>153242.4</v>
+      </c>
+      <c r="N119">
+        <v>153.2424</v>
+      </c>
+      <c r="O119">
+        <f>N119/L119</f>
+        <v>15.32424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>16</v>
+      </c>
+      <c r="D120">
+        <f>15.686*(B120)-16.089</f>
+        <v>234.887</v>
+      </c>
+      <c r="E120">
+        <f>(D120/B120)</f>
+        <v>14.6804375</v>
+      </c>
+      <c r="L120">
+        <v>16</v>
+      </c>
+      <c r="M120">
+        <f>(17776*L120-26583)</f>
+        <v>257833</v>
+      </c>
+      <c r="N120">
+        <v>257.83300000000003</v>
+      </c>
+      <c r="O120">
+        <f>N120/L120</f>
+        <v>16.114562500000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>31</v>
+      </c>
+      <c r="D121">
+        <f>15.686*(B121)-16.089</f>
+        <v>470.17700000000002</v>
+      </c>
+      <c r="E121">
+        <f>(D121/B121)</f>
+        <v>15.167</v>
+      </c>
+      <c r="L121">
+        <v>31</v>
+      </c>
+      <c r="M121">
+        <f>(17776*L121-26583)</f>
+        <v>524473</v>
+      </c>
+      <c r="N121">
+        <v>524.47299999999996</v>
+      </c>
+      <c r="O121">
+        <f>N121/L121</f>
+        <v>16.918483870967741</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>61</v>
+      </c>
+      <c r="D122">
+        <f>15.686*(B122)-16.089</f>
+        <v>940.75700000000006</v>
+      </c>
+      <c r="E122">
+        <f>(D122/B122)</f>
+        <v>15.422245901639345</v>
+      </c>
+      <c r="L122">
+        <v>61</v>
+      </c>
+      <c r="M122">
+        <f>(17776*L122-26583)</f>
+        <v>1057753</v>
+      </c>
+      <c r="N122">
+        <v>1057.7529999999999</v>
+      </c>
+      <c r="O122">
+        <f>N122/L122</f>
+        <v>17.340213114754096</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>91</v>
+      </c>
+      <c r="D123">
+        <f>15.686*(B123)-16.089</f>
+        <v>1411.337</v>
+      </c>
+      <c r="E123">
+        <f>(D123/B123)</f>
+        <v>15.509197802197802</v>
+      </c>
+      <c r="L123">
+        <v>91</v>
+      </c>
+      <c r="M123">
+        <f>(17776*L123-26583)</f>
+        <v>1591033</v>
+      </c>
+      <c r="N123">
+        <v>1591.0329999999999</v>
+      </c>
+      <c r="O123">
+        <f>N123/L123</f>
+        <v>17.48387912087912</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="D124">
+        <f>15.686*(B124)-16.089</f>
+        <v>1881.9170000000001</v>
+      </c>
+      <c r="E124">
+        <f>(D124/B124)</f>
+        <v>15.553033057851241</v>
+      </c>
+      <c r="L124">
+        <v>121</v>
+      </c>
+      <c r="M124">
+        <f>(17776*L124-26583)</f>
+        <v>2124313</v>
+      </c>
+      <c r="N124">
+        <v>2124.3130000000001</v>
+      </c>
+      <c r="O124">
+        <f>N124/L124</f>
+        <v>17.556305785123968</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K127" s="14"/>
+      <c r="L127" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P127">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>46268.641599999995</v>
+      </c>
+      <c r="N128">
+        <v>46.268641599999995</v>
+      </c>
+    </row>
+    <row r="129" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>7</v>
+      </c>
+      <c r="M129">
+        <v>93091.812000000005</v>
+      </c>
+      <c r="N129">
+        <v>93.091812000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>10</v>
+      </c>
+      <c r="M130">
+        <v>138972.416</v>
+      </c>
+      <c r="N130">
+        <v>138.97241600000001</v>
+      </c>
+    </row>
+    <row r="131" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>16</v>
+      </c>
+      <c r="M131">
+        <f>15451*L131-15377</f>
+        <v>231839</v>
+      </c>
+      <c r="N131">
+        <v>231.839</v>
+      </c>
+    </row>
+    <row r="132" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>31</v>
+      </c>
+      <c r="M132">
+        <f>15451*L132-15377</f>
+        <v>463604</v>
+      </c>
+      <c r="N132">
+        <v>463.60399999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>61</v>
+      </c>
+      <c r="M133">
+        <f>15451*L133-15377</f>
+        <v>927134</v>
+      </c>
+      <c r="N133">
+        <v>927.13400000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>91</v>
+      </c>
+      <c r="M134">
+        <f>15451*L134-15377</f>
+        <v>1390664</v>
+      </c>
+      <c r="N134">
+        <v>1390.664</v>
+      </c>
+    </row>
+    <row r="135" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>121</v>
+      </c>
+      <c r="M135">
+        <f>15451*L135-15377</f>
+        <v>1854194</v>
+      </c>
+      <c r="N135">
+        <v>1854.194</v>
+      </c>
+    </row>
+    <row r="137" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K137" s="14"/>
+      <c r="L137" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L138" s="8">
+        <v>16</v>
+      </c>
+      <c r="M138">
+        <v>20</v>
+      </c>
+      <c r="N138">
+        <f>M138*L138</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L139" s="8">
+        <v>32</v>
+      </c>
+      <c r="M139">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="N139">
+        <f>M139*L139</f>
+        <v>1065.5999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L140" s="8">
+        <v>64</v>
+      </c>
+      <c r="M140">
+        <v>65</v>
+      </c>
+      <c r="N140">
+        <f>M140*L140</f>
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="141" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L141" s="8">
+        <v>128</v>
+      </c>
+      <c r="M141">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="N141">
+        <f>M141*L141</f>
+        <v>18137.599999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L142" s="8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K143" s="14"/>
+      <c r="L143" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L144" s="8">
+        <v>100</v>
+      </c>
+      <c r="M144">
+        <v>169</v>
+      </c>
+      <c r="N144">
+        <f>M144*L144</f>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="145" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L145" s="8">
+        <v>150</v>
+      </c>
+      <c r="M145">
+        <v>252</v>
+      </c>
+      <c r="N145">
+        <f>M145*L145</f>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="146" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L146" s="8">
+        <v>200</v>
+      </c>
+      <c r="M146">
+        <v>336</v>
+      </c>
+      <c r="N146">
+        <f>M146*L146</f>
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="148" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K148" s="14"/>
+      <c r="L148" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M148" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N148" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L149" s="8">
+        <v>16</v>
+      </c>
+      <c r="M149" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="N149">
+        <f>M149*L149</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L150" s="8">
+        <v>32</v>
+      </c>
+      <c r="M150" s="8">
+        <v>58.3</v>
+      </c>
+      <c r="N150">
+        <f>M150*L150</f>
+        <v>1865.6</v>
+      </c>
+    </row>
+    <row r="151" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L151" s="8">
+        <v>64</v>
+      </c>
+      <c r="M151" s="8">
+        <v>120</v>
+      </c>
+      <c r="N151">
+        <f>M151*L151</f>
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="152" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L152" s="8">
+        <v>128</v>
+      </c>
+      <c r="M152" s="8">
+        <v>240.8</v>
+      </c>
+      <c r="N152">
+        <f>M152*L152</f>
+        <v>30822.400000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K156" s="14"/>
+      <c r="L156" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M156" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N156" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L157" s="8">
+        <v>100</v>
+      </c>
+      <c r="M157">
+        <v>169</v>
+      </c>
+      <c r="N157">
+        <f>M157*L157</f>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="158" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L158" s="8">
+        <v>150</v>
+      </c>
+      <c r="M158">
+        <v>252</v>
+      </c>
+      <c r="N158">
+        <f>M158*L158</f>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="159" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L159" s="8">
+        <v>200</v>
+      </c>
+      <c r="M159">
+        <v>336</v>
+      </c>
+      <c r="N159">
+        <f>M159*L159</f>
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="160" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="L160" s="8">
+        <v>50</v>
+      </c>
+      <c r="N160" s="8">
+        <f>1.7*50*50-7*50+600</f>
+        <v>4500</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="O67:O68"/>
     <mergeCell ref="O69:O70"/>
@@ -40870,24 +44420,7 @@
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
     <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
